--- a/Background/itineraries.xlsx
+++ b/Background/itineraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Background/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675E7E86-1221-FD46-83FD-7A643A7EDD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F076DA-8ACB-1343-A88F-CE37EC4D8FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{594BAC12-55F0-2044-B4AD-BEB60A96ACF7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Trip Itinerary</t>
   </si>
@@ -98,55 +98,19 @@
     <t>Harrisburg to Burlington</t>
   </si>
   <si>
-    <t>University Lake</t>
-  </si>
-  <si>
     <t>Chapel Hill to Asheville</t>
   </si>
   <si>
-    <t>Carvins Cove has access fee</t>
-  </si>
-  <si>
     <t>Asheville to Roanoke</t>
   </si>
   <si>
-    <t>Asheville to Harrisburg</t>
-  </si>
-  <si>
     <t>Pinchot Lake</t>
   </si>
   <si>
-    <t>Green Lake</t>
-  </si>
-  <si>
     <t>Hillside Park</t>
   </si>
   <si>
-    <t>Maybe Lake Johnson (Raleigh)</t>
-  </si>
-  <si>
-    <t>Courthouse Park OR Echo Lake</t>
-  </si>
-  <si>
-    <t>No acess fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small fishing dock </t>
-  </si>
-  <si>
     <t>Small fishing platform</t>
-  </si>
-  <si>
-    <t>Owen Park OR Lake Julian</t>
-  </si>
-  <si>
-    <t>Carvins Cove OR Lake Moomaw (Cole's Point)</t>
-  </si>
-  <si>
-    <t>Phelps Lake OR Buckhorn Lake</t>
-  </si>
-  <si>
-    <t>Daily fee for boat launch at Buckhorn</t>
   </si>
   <si>
     <t>Holiday Inn Express - 1265 Commerce Boulevard, Dickson City, Pennsylvania 18519 United States</t>
@@ -169,6 +133,33 @@
   </si>
   <si>
     <t>Stocked trout pond</t>
+  </si>
+  <si>
+    <t>Lake Wilson</t>
+  </si>
+  <si>
+    <t>Courthouse Park</t>
+  </si>
+  <si>
+    <t>Harrisburg to Oneanta</t>
+  </si>
+  <si>
+    <t>Goodyear Lake</t>
+  </si>
+  <si>
+    <t>Roanoke to Harrisburg</t>
+  </si>
+  <si>
+    <t>Gilly's Park</t>
+  </si>
+  <si>
+    <t>Owen Park</t>
+  </si>
+  <si>
+    <t>39 Elm Street Asheville, North Carolina 28801 USA</t>
+  </si>
+  <si>
+    <t>1303 Williamson Rd. NE, Roanoke, VA  United States  24012</t>
   </si>
 </sst>
 </file>
@@ -223,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -240,7 +231,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +580,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,7 +590,8 @@
     <col min="3" max="3" width="37.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="33.5" style="3" customWidth="1"/>
-    <col min="6" max="9" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="10.83203125" style="7"/>
+    <col min="7" max="9" width="10.83203125" style="3"/>
     <col min="10" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -598,23 +601,23 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>42</v>
+      <c r="F3" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -628,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -648,13 +651,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -668,13 +671,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -684,8 +684,8 @@
       <c r="B7" s="4">
         <v>45438</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>39</v>
+      <c r="F7" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -695,11 +695,8 @@
       <c r="B8" s="4">
         <v>45439</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
+      <c r="F8" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -709,8 +706,11 @@
       <c r="B9" s="4">
         <v>45440</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>39</v>
@@ -726,10 +726,10 @@
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -741,16 +741,13 @@
         <v>45442</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
+      <c r="F11" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -761,16 +758,13 @@
         <v>45443</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -784,13 +778,10 @@
         <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Background/itineraries.xlsx
+++ b/Background/itineraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Background/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F076DA-8ACB-1343-A88F-CE37EC4D8FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F71056-DE65-7E4D-A31B-287B747CBAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{594BAC12-55F0-2044-B4AD-BEB60A96ACF7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Trip Itinerary</t>
   </si>
@@ -160,13 +160,19 @@
   </si>
   <si>
     <t>1303 Williamson Rd. NE, Roanoke, VA  United States  24012</t>
+  </si>
+  <si>
+    <t>225 River Street, Oneonta NY 13820</t>
+  </si>
+  <si>
+    <t>185 Beacon Hill Boulevard New Cumberland, Pennsylvania 17070 USA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,9 +194,25 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF464646"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -214,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,18 +253,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +601,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,12 +616,12 @@
     <col min="10" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -620,7 +641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -640,7 +661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -660,7 +681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -677,7 +698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -688,7 +709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -699,7 +720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -712,11 +733,11 @@
       <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -733,7 +754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -747,10 +768,10 @@
         <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -763,11 +784,11 @@
       <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -783,6 +804,7 @@
       <c r="F13" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="G13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
